--- a/data/Datos AlohAndes0/miembros/miembrosViviendaComunidad.xlsx
+++ b/data/Datos AlohAndes0/miembros/miembrosViviendaComunidad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianoliveros/Desktop/Sistemas Transaccionales/proyecto alhoanades/miembros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianoliveros/Desktop/Sistemas Transaccionales/proyecto alhoanades/ProyectoAlhoandes/AlohAndes/data/Datos AlohAndes0/miembros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF7F4AD-FDB0-494B-BAF2-583BCEDBC6E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F665C315-FF6D-DF4E-A08A-4B7A513A93BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DDAAF162-D997-4A42-A399-E21E899B4E86}"/>
+    <workbookView xWindow="15320" yWindow="460" windowWidth="13060" windowHeight="16720" xr2:uid="{DDAAF162-D997-4A42-A399-E21E899B4E86}"/>
   </bookViews>
   <sheets>
     <sheet name="vivienda comunidad" sheetId="1" r:id="rId1"/>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A82E044-0AEE-E346-9A0B-F1E6FCBA04A8}">
   <dimension ref="A1:D3001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2957" zoomScale="88" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="E2969" sqref="E2969"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
